--- a/Test/Lawnmower/T2/Sensors_data_1000048.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000048.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9759342886357351</v>
+        <v>0.8950486004839484</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00076805548232153</v>
+        <v>0.003421319785269812</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3451942336206942</v>
+        <v>0.03915649727319859</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8621302850265185</v>
+        <v>0.9514759906274545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007370839956591546</v>
+        <v>0.002135450518054</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05315893165237395</v>
+        <v>0.1603840151460164</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,68 +525,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9734187274874309</v>
+        <v>0.9907537409425793</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001612741607577372</v>
+        <v>0.0003198949005089393</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01808078270641539</v>
+        <v>0.259150812741521</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7255234071016397</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.009710574195743199</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.07520244420081856</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9697661494549192</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001111137814103935</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3003963586189353</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
